--- a/biology/Histoire de la zoologie et de la botanique/Hans_Daniel_Johan_Wallengren/Hans_Daniel_Johan_Wallengren.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hans_Daniel_Johan_Wallengren/Hans_Daniel_Johan_Wallengren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Daniel Johan Wallengren est un pasteur et un zoologiste suédois, né le 8 juin 1823 à Lund et mort le 25 octobre 1894 à Farhult dans la commune de Höganäs.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, pasteur à Västra Ljungby en Scanie, est le doyen Olof Peter Wallengren et sa mère Petronella Agritz, qui portait toutefois le nom de son oncle maternel Lundell.
 Wallengren étudie à Lund en 1842 et entre dans les ordres en 1847. Il est nommé pasteur dans les paroisses de Farhult et Jonstorp du diocèse de Lund en 1864.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'auteur de nombreux travaux, qu’il s’agisse d’articles dans les revues Vetenskapsakad. handlingar, Naumannia, dans Wiener Entomologische ou dans Monatschrift, ou de livres.
 Lepidoptera Scandinaviæ : Rhopalocera (1853) ;
